--- a/Code/Results/Cases/Case_9_47/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_9_47/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.11781989958028</v>
+        <v>22.28782896298968</v>
       </c>
       <c r="C2">
-        <v>16.9697538922744</v>
+        <v>17.85467195289688</v>
       </c>
       <c r="D2">
-        <v>6.255179671038237</v>
+        <v>6.571446767555251</v>
       </c>
       <c r="E2">
-        <v>11.45715818344188</v>
+        <v>11.60347668547588</v>
       </c>
       <c r="F2">
-        <v>31.8121350678684</v>
+        <v>30.36515029053886</v>
       </c>
       <c r="G2">
-        <v>40.56215644868751</v>
+        <v>37.52441350110007</v>
       </c>
       <c r="H2">
-        <v>1.798645386849945</v>
+        <v>1.800907345100839</v>
       </c>
       <c r="I2">
-        <v>2.638395350388321</v>
+        <v>2.687987860768205</v>
       </c>
       <c r="J2">
-        <v>12.47929914271831</v>
+        <v>12.32724136327684</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.514702459178146</v>
+        <v>14.20841761882229</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>10.70439000145065</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.484720564874303</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>12.22191086907633</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>12.16385844782068</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.61918844946902</v>
+        <v>20.8756884129752</v>
       </c>
       <c r="C3">
-        <v>15.84048424722508</v>
+        <v>16.61294405588841</v>
       </c>
       <c r="D3">
-        <v>5.977667695682238</v>
+        <v>6.27188357619537</v>
       </c>
       <c r="E3">
-        <v>10.90161619066588</v>
+        <v>11.05159730488987</v>
       </c>
       <c r="F3">
-        <v>30.59394850187391</v>
+        <v>29.30033889436858</v>
       </c>
       <c r="G3">
-        <v>38.76810759281039</v>
+        <v>36.01366087070051</v>
       </c>
       <c r="H3">
-        <v>1.615920369879368</v>
+        <v>1.59185406653594</v>
       </c>
       <c r="I3">
-        <v>2.525541314293845</v>
+        <v>2.500266634998527</v>
       </c>
       <c r="J3">
-        <v>12.21683423276145</v>
+        <v>12.08442921377646</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.258303537505892</v>
+        <v>14.23620044373066</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.44443404542437</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>7.242151316286424</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>12.38101035627523</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>12.29341628144444</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.64419063758371</v>
+        <v>19.95528901293758</v>
       </c>
       <c r="C4">
-        <v>15.11088895694503</v>
+        <v>15.8094426983605</v>
       </c>
       <c r="D4">
-        <v>5.801897061617463</v>
+        <v>6.082366201408764</v>
       </c>
       <c r="E4">
-        <v>10.54655307990207</v>
+        <v>10.69914235781079</v>
       </c>
       <c r="F4">
-        <v>29.82979087478493</v>
+        <v>28.63179094077228</v>
       </c>
       <c r="G4">
-        <v>37.63697588905995</v>
+        <v>35.06480288004705</v>
       </c>
       <c r="H4">
-        <v>1.805945969927305</v>
+        <v>1.768282606792139</v>
       </c>
       <c r="I4">
-        <v>2.669698226912609</v>
+        <v>2.570784854721135</v>
       </c>
       <c r="J4">
-        <v>12.05638786773511</v>
+        <v>11.93298205896025</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.095594620631372</v>
+        <v>14.24971917460445</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.30473993244474</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>7.088277398741183</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>12.4800303932189</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>12.37510020151177</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.22505541207126</v>
+        <v>19.55912598394124</v>
       </c>
       <c r="C5">
-        <v>14.81405187423216</v>
+        <v>15.48096758040701</v>
       </c>
       <c r="D5">
-        <v>5.731630083251384</v>
+        <v>6.006378033921159</v>
       </c>
       <c r="E5">
-        <v>10.39941950897302</v>
+        <v>10.55315088886609</v>
       </c>
       <c r="F5">
-        <v>29.5016507590622</v>
+        <v>28.34361641576653</v>
       </c>
       <c r="G5">
-        <v>37.14547368544702</v>
+        <v>34.65073465504209</v>
       </c>
       <c r="H5">
-        <v>1.885360702215425</v>
+        <v>1.842050106658974</v>
       </c>
       <c r="I5">
-        <v>2.733026372964148</v>
+        <v>2.626241340639448</v>
       </c>
       <c r="J5">
-        <v>11.98660563882809</v>
+        <v>11.86637389703373</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.027538771516431</v>
+        <v>14.24667616275836</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.2466756248156</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>7.023942736607797</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>12.52055073488541</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>12.4091375523751</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.14477688354092</v>
+        <v>19.48313548141161</v>
       </c>
       <c r="C6">
-        <v>14.77597905474414</v>
+        <v>15.43720745496326</v>
       </c>
       <c r="D6">
-        <v>5.723136942395939</v>
+        <v>5.996826461009628</v>
       </c>
       <c r="E6">
-        <v>10.3759977356296</v>
+        <v>10.5298918779261</v>
       </c>
       <c r="F6">
-        <v>29.43100936271876</v>
+        <v>28.28050659702216</v>
       </c>
       <c r="G6">
-        <v>37.03452597350437</v>
+        <v>34.554218915117</v>
       </c>
       <c r="H6">
-        <v>1.899103743880599</v>
+        <v>1.854802761473734</v>
       </c>
       <c r="I6">
-        <v>2.747780433680024</v>
+        <v>2.640361096601596</v>
       </c>
       <c r="J6">
-        <v>11.96937956847062</v>
+        <v>11.84997156102176</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.015601266346199</v>
+        <v>14.23677698697242</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.22957835083373</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>7.012669395456046</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>12.52709078275474</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>12.41509546775161</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.61231118857964</v>
+        <v>19.9139931865364</v>
       </c>
       <c r="C7">
-        <v>15.13827422221161</v>
+        <v>15.82099817555338</v>
       </c>
       <c r="D7">
-        <v>5.80969250548295</v>
+        <v>6.095266053146282</v>
       </c>
       <c r="E7">
-        <v>10.54784610756146</v>
+        <v>10.70232810907898</v>
       </c>
       <c r="F7">
-        <v>29.78240738322028</v>
+        <v>28.560851158659</v>
       </c>
       <c r="G7">
-        <v>37.55253894030538</v>
+        <v>35.06365666836547</v>
       </c>
       <c r="H7">
-        <v>1.808248019539616</v>
+        <v>1.77122601609834</v>
       </c>
       <c r="I7">
-        <v>2.681641165000959</v>
+        <v>2.585230171858029</v>
       </c>
       <c r="J7">
-        <v>12.04011234814572</v>
+        <v>11.8592520518339</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.093174759323767</v>
+        <v>14.21385023798685</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.27305229901167</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>7.085045034396311</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>12.4800871133618</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>12.37688473895991</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.58030581896705</v>
+        <v>21.74778223959015</v>
       </c>
       <c r="C8">
-        <v>16.62606072654044</v>
+        <v>17.42783188829355</v>
       </c>
       <c r="D8">
-        <v>6.171590040667406</v>
+        <v>6.497253243145412</v>
       </c>
       <c r="E8">
-        <v>11.27262845118131</v>
+        <v>11.42630813907035</v>
       </c>
       <c r="F8">
-        <v>31.34139477523652</v>
+        <v>29.86595065997942</v>
       </c>
       <c r="G8">
-        <v>39.85238959583863</v>
+        <v>37.16375023672669</v>
       </c>
       <c r="H8">
-        <v>1.697636363566365</v>
+        <v>1.704760962491647</v>
       </c>
       <c r="I8">
-        <v>2.566075672119411</v>
+        <v>2.62506953066131</v>
       </c>
       <c r="J8">
-        <v>12.36891191546821</v>
+        <v>12.0367345824836</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.425512911459077</v>
+        <v>14.15422594689738</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10.548663625012</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7.397326043292167</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>12.27624581933189</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>12.21193450515469</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26.08324009527304</v>
+        <v>25.06628327624314</v>
       </c>
       <c r="C9">
-        <v>19.20860513551893</v>
+        <v>20.26000720103884</v>
       </c>
       <c r="D9">
-        <v>6.822091677955757</v>
+        <v>7.204129956702348</v>
       </c>
       <c r="E9">
-        <v>12.5752946850039</v>
+        <v>12.72236869616848</v>
       </c>
       <c r="F9">
-        <v>34.32856982609117</v>
+        <v>32.46328482229532</v>
       </c>
       <c r="G9">
-        <v>44.23752265972599</v>
+        <v>40.93020570510853</v>
       </c>
       <c r="H9">
-        <v>2.395715170902489</v>
+        <v>2.350350927134985</v>
       </c>
       <c r="I9">
-        <v>3.091079994092322</v>
+        <v>3.073900502497755</v>
       </c>
       <c r="J9">
-        <v>13.0439550744823</v>
+        <v>12.60265242471245</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.036598315554093</v>
+        <v>14.0900726116226</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>11.31286166456288</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.975099596359205</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>11.88658783819334</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>11.90131370843275</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.35486859669021</v>
+        <v>27.13839423845981</v>
       </c>
       <c r="C10">
-        <v>20.87543929468582</v>
+        <v>22.01181622161344</v>
       </c>
       <c r="D10">
-        <v>7.199966087822303</v>
+        <v>7.642334205922897</v>
       </c>
       <c r="E10">
-        <v>13.24520539911257</v>
+        <v>13.39506270717172</v>
       </c>
       <c r="F10">
-        <v>36.14876305315945</v>
+        <v>33.9004167681201</v>
       </c>
       <c r="G10">
-        <v>46.92839774286809</v>
+        <v>43.62445643696671</v>
       </c>
       <c r="H10">
-        <v>2.86292860582261</v>
+        <v>2.777155795043362</v>
       </c>
       <c r="I10">
-        <v>3.454586522055409</v>
+        <v>3.381728501328077</v>
       </c>
       <c r="J10">
-        <v>13.46463348732743</v>
+        <v>12.63336281660748</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.344110600038231</v>
+        <v>13.90440942648294</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>11.80845556915296</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>8.25618201276257</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>11.61032035939495</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>11.70163438883647</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.67354128288297</v>
+        <v>27.37655492328457</v>
       </c>
       <c r="C11">
-        <v>21.01903175349727</v>
+        <v>21.98375459454878</v>
       </c>
       <c r="D11">
-        <v>6.744977416865591</v>
+        <v>7.212761619558888</v>
       </c>
       <c r="E11">
-        <v>11.72152575476645</v>
+        <v>11.86289983721408</v>
       </c>
       <c r="F11">
-        <v>34.70504847376978</v>
+        <v>32.24236724538538</v>
       </c>
       <c r="G11">
-        <v>45.23604031644942</v>
+        <v>42.86176352637253</v>
       </c>
       <c r="H11">
-        <v>3.543135253624934</v>
+        <v>3.462394272253436</v>
       </c>
       <c r="I11">
-        <v>3.547461930342694</v>
+        <v>3.457365334550617</v>
       </c>
       <c r="J11">
-        <v>13.04225362861373</v>
+        <v>11.61804272776998</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.551719472333561</v>
+        <v>13.18029237537123</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>11.2870428910839</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>7.454857895177697</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>11.55113477744396</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>11.74537142255199</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.50802926280289</v>
+        <v>27.21219808383138</v>
       </c>
       <c r="C12">
-        <v>20.7606993117123</v>
+        <v>21.60204577519887</v>
       </c>
       <c r="D12">
-        <v>6.277173576942452</v>
+        <v>6.73356376506054</v>
       </c>
       <c r="E12">
-        <v>10.36037228135636</v>
+        <v>10.48043928581949</v>
       </c>
       <c r="F12">
-        <v>33.13577573067128</v>
+        <v>30.65130117983223</v>
       </c>
       <c r="G12">
-        <v>43.31274868154972</v>
+        <v>41.48807766218147</v>
       </c>
       <c r="H12">
-        <v>4.614548718567703</v>
+        <v>4.552791546596429</v>
       </c>
       <c r="I12">
-        <v>3.551470605354974</v>
+        <v>3.458348087934008</v>
       </c>
       <c r="J12">
-        <v>12.61061620233166</v>
+        <v>10.97219724320923</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.898321203383692</v>
+        <v>12.68150122894002</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>10.80054899457862</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.803522122631336</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>11.58318410752501</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>11.83902735198376</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.92488520429755</v>
+        <v>26.71586569646554</v>
       </c>
       <c r="C13">
-        <v>20.20603010941315</v>
+        <v>20.97536872253279</v>
       </c>
       <c r="D13">
-        <v>5.77448934069532</v>
+        <v>6.180000016969077</v>
       </c>
       <c r="E13">
-        <v>9.051681242844559</v>
+        <v>9.136005829002785</v>
       </c>
       <c r="F13">
-        <v>31.28309706111048</v>
+        <v>28.98276248678836</v>
       </c>
       <c r="G13">
-        <v>40.94196655752938</v>
+        <v>39.25495211042105</v>
       </c>
       <c r="H13">
-        <v>5.808876154568193</v>
+        <v>5.765831156615888</v>
       </c>
       <c r="I13">
-        <v>3.489857864334672</v>
+        <v>3.407474288601476</v>
       </c>
       <c r="J13">
-        <v>12.11819784500806</v>
+        <v>10.64816427390835</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.325891557826073</v>
+        <v>12.29994139304211</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>10.29684136478867</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.243923856311307</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>11.68228357925757</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>11.96176036569264</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.31363065014381</v>
+        <v>26.20469509150773</v>
       </c>
       <c r="C14">
-        <v>19.68337165542323</v>
+        <v>20.42272080929995</v>
       </c>
       <c r="D14">
-        <v>5.408521204966718</v>
+        <v>5.76147899250586</v>
       </c>
       <c r="E14">
-        <v>8.196979271826489</v>
+        <v>8.250492598808881</v>
       </c>
       <c r="F14">
-        <v>29.83173980851373</v>
+        <v>27.75245465024366</v>
       </c>
       <c r="G14">
-        <v>39.03469493425187</v>
+        <v>37.26719078019983</v>
       </c>
       <c r="H14">
-        <v>6.691033925816996</v>
+        <v>6.659202323763451</v>
       </c>
       <c r="I14">
-        <v>3.41821563507415</v>
+        <v>3.34976057365537</v>
       </c>
       <c r="J14">
-        <v>11.74062003101334</v>
+        <v>10.54670580308292</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>5.990918675031538</v>
+        <v>12.07490242042592</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>9.929987533610401</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.922753983251888</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>11.78311550077726</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>12.05943602904676</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.0650040675182</v>
+        <v>25.99795779246932</v>
       </c>
       <c r="C15">
-        <v>19.49990412513664</v>
+        <v>20.24036772001099</v>
       </c>
       <c r="D15">
-        <v>5.312841939596794</v>
+        <v>5.646679340852014</v>
       </c>
       <c r="E15">
-        <v>7.992511758872972</v>
+        <v>8.038127606120648</v>
       </c>
       <c r="F15">
-        <v>29.40423846495033</v>
+        <v>27.41876377789502</v>
       </c>
       <c r="G15">
-        <v>38.44786028729514</v>
+        <v>36.58678082062021</v>
       </c>
       <c r="H15">
-        <v>6.890693900883087</v>
+        <v>6.86208694023996</v>
       </c>
       <c r="I15">
-        <v>3.387239124101189</v>
+        <v>3.325616933664698</v>
       </c>
       <c r="J15">
-        <v>11.63151069574267</v>
+        <v>10.57189380198958</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>5.916107569038796</v>
+        <v>12.03314050070853</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>9.828693610724441</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.853060755752138</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>11.81955499780194</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>12.08758204051808</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.19580858072118</v>
+        <v>25.27531494731152</v>
       </c>
       <c r="C16">
-        <v>18.90133401016097</v>
+        <v>19.71106810073145</v>
       </c>
       <c r="D16">
-        <v>5.234011984680953</v>
+        <v>5.517420711438113</v>
       </c>
       <c r="E16">
-        <v>7.903789080951913</v>
+        <v>7.951729821643598</v>
       </c>
       <c r="F16">
-        <v>28.89523924600992</v>
+        <v>27.2387373312553</v>
       </c>
       <c r="G16">
-        <v>37.6046229237835</v>
+        <v>35.13679407969539</v>
       </c>
       <c r="H16">
-        <v>6.599655911425321</v>
+        <v>6.579362413669148</v>
       </c>
       <c r="I16">
-        <v>3.247239956014789</v>
+        <v>3.213320144208718</v>
       </c>
       <c r="J16">
-        <v>11.52962096554253</v>
+        <v>11.02759444493141</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>5.880909138780948</v>
+        <v>12.21167797284864</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>9.786990381511714</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.832344454995495</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>11.9041892271462</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>12.10749501861854</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.85572712014899</v>
+        <v>24.98057976353871</v>
       </c>
       <c r="C17">
-        <v>18.72640345068964</v>
+        <v>19.59034625879807</v>
       </c>
       <c r="D17">
-        <v>5.372242275426127</v>
+        <v>5.649501013346029</v>
       </c>
       <c r="E17">
-        <v>8.280371015558458</v>
+        <v>8.344456790960921</v>
       </c>
       <c r="F17">
-        <v>29.29929268296549</v>
+        <v>27.74309185842516</v>
       </c>
       <c r="G17">
-        <v>38.00835801220899</v>
+        <v>35.21800944912486</v>
       </c>
       <c r="H17">
-        <v>5.85366442592376</v>
+        <v>5.835294857767447</v>
       </c>
       <c r="I17">
-        <v>3.177611493547144</v>
+        <v>3.156808051604168</v>
       </c>
       <c r="J17">
-        <v>11.6555264532067</v>
+        <v>11.3720043749358</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.018751590568106</v>
+        <v>12.46591155560875</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>9.936485967045066</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.97364350384487</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>11.91701823441972</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>12.08034867224685</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.96447312085537</v>
+        <v>25.06831374622583</v>
       </c>
       <c r="C18">
-        <v>18.88503390507343</v>
+        <v>19.8203445645666</v>
       </c>
       <c r="D18">
-        <v>5.718456499665519</v>
+        <v>6.016209806370679</v>
       </c>
       <c r="E18">
-        <v>9.20381197679904</v>
+        <v>9.291250572145909</v>
       </c>
       <c r="F18">
-        <v>30.56299221695398</v>
+        <v>28.96821735676473</v>
       </c>
       <c r="G18">
-        <v>39.58353024982125</v>
+        <v>36.53094916695757</v>
       </c>
       <c r="H18">
-        <v>4.679449404092222</v>
+        <v>4.657184128282048</v>
       </c>
       <c r="I18">
-        <v>3.160172116296604</v>
+        <v>3.141019947034008</v>
       </c>
       <c r="J18">
-        <v>12.00114144480848</v>
+        <v>11.77322337494915</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.398411994052415</v>
+        <v>12.85400044002045</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>10.3002817018958</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.349364620515062</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>11.87742914693159</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>12.00774721661012</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.385868383558</v>
+        <v>25.42705710840638</v>
       </c>
       <c r="C19">
-        <v>19.34496214943508</v>
+        <v>20.36706778695441</v>
       </c>
       <c r="D19">
-        <v>6.227717638012497</v>
+        <v>6.560705671166768</v>
       </c>
       <c r="E19">
-        <v>10.59985853445953</v>
+        <v>10.71104493042312</v>
       </c>
       <c r="F19">
-        <v>32.34059086874273</v>
+        <v>30.62403670844817</v>
       </c>
       <c r="G19">
-        <v>41.83394902719282</v>
+        <v>38.53347764643667</v>
       </c>
       <c r="H19">
-        <v>3.431442388463634</v>
+        <v>3.396562076419738</v>
       </c>
       <c r="I19">
-        <v>3.195526391849585</v>
+        <v>3.171395830119114</v>
       </c>
       <c r="J19">
-        <v>12.47073554624883</v>
+        <v>12.2103392473242</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>7.031886353372769</v>
+        <v>13.29825567878428</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>10.77672092284489</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.974571641007746</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>11.81826521243182</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>11.91913789644595</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.71000519815282</v>
+        <v>26.57868713081821</v>
       </c>
       <c r="C20">
-        <v>20.51992249805269</v>
+        <v>21.67128518145056</v>
       </c>
       <c r="D20">
-        <v>7.121496611771207</v>
+        <v>7.531093398632403</v>
       </c>
       <c r="E20">
-        <v>13.07106470743059</v>
+        <v>13.21405335025365</v>
       </c>
       <c r="F20">
-        <v>35.55208339282775</v>
+        <v>33.49081202908192</v>
       </c>
       <c r="G20">
-        <v>46.01699825859898</v>
+        <v>42.48663688464683</v>
       </c>
       <c r="H20">
-        <v>2.736608581339458</v>
+        <v>2.664258137378634</v>
       </c>
       <c r="I20">
-        <v>3.365780645289831</v>
+        <v>3.313658172005069</v>
       </c>
       <c r="J20">
-        <v>13.30784021515242</v>
+        <v>12.77253887515303</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.255613581744957</v>
+        <v>13.91919075862487</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>11.6352392155772</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>8.177760902949322</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>11.68437444809042</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>11.75670642423866</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.49586425564939</v>
+        <v>28.04705670341583</v>
       </c>
       <c r="C21">
-        <v>21.83802521602998</v>
+        <v>22.86732490278614</v>
       </c>
       <c r="D21">
-        <v>7.511625927324822</v>
+        <v>8.059029691965129</v>
       </c>
       <c r="E21">
-        <v>13.89832871929275</v>
+        <v>14.07858776842221</v>
       </c>
       <c r="F21">
-        <v>37.33806014489931</v>
+        <v>34.54189233810032</v>
       </c>
       <c r="G21">
-        <v>48.5775540453164</v>
+        <v>46.22143567267119</v>
       </c>
       <c r="H21">
-        <v>3.118758549296108</v>
+        <v>3.001410422445543</v>
       </c>
       <c r="I21">
-        <v>3.652269785870818</v>
+        <v>3.543260984841595</v>
       </c>
       <c r="J21">
-        <v>13.74662128690443</v>
+        <v>11.92536624372682</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.659599321425674</v>
+        <v>13.7275507445238</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>11.97207820202809</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>8.545646595223499</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>11.46666944914635</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>11.61496789476071</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.59893985468542</v>
+        <v>28.94383327307043</v>
       </c>
       <c r="C22">
-        <v>22.60433834125459</v>
+        <v>23.5390666568645</v>
       </c>
       <c r="D22">
-        <v>7.713850701167554</v>
+        <v>8.353020940512264</v>
       </c>
       <c r="E22">
-        <v>14.31041862128407</v>
+        <v>14.5159476805359</v>
       </c>
       <c r="F22">
-        <v>38.39658834002925</v>
+        <v>35.1096942643965</v>
       </c>
       <c r="G22">
-        <v>50.12570870138963</v>
+        <v>48.6156822771049</v>
       </c>
       <c r="H22">
-        <v>3.355430354463287</v>
+        <v>3.209238200532614</v>
       </c>
       <c r="I22">
-        <v>3.831001481306691</v>
+        <v>3.684140010846742</v>
       </c>
       <c r="J22">
-        <v>14.01492366919226</v>
+        <v>11.30954017215273</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.861696773699142</v>
+        <v>13.58408970011153</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>12.17876841198303</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>8.724406700590242</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>11.32635917900356</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>11.53142727962434</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.03725085047507</v>
+        <v>28.51134470932485</v>
       </c>
       <c r="C23">
-        <v>22.17160281664525</v>
+        <v>23.18489723680434</v>
       </c>
       <c r="D23">
-        <v>7.598312525988645</v>
+        <v>8.177025038021226</v>
       </c>
       <c r="E23">
-        <v>14.0886850348179</v>
+        <v>14.2762942083005</v>
       </c>
       <c r="F23">
-        <v>37.87448169550952</v>
+        <v>34.90354604929668</v>
       </c>
       <c r="G23">
-        <v>49.3746217524284</v>
+        <v>47.24259894343051</v>
       </c>
       <c r="H23">
-        <v>3.230695542405371</v>
+        <v>3.101187505917441</v>
       </c>
       <c r="I23">
-        <v>3.733653979925664</v>
+        <v>3.606937376719332</v>
       </c>
       <c r="J23">
-        <v>13.88761872765282</v>
+        <v>11.78087368844477</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.75576221604101</v>
+        <v>13.70471428606002</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>12.12084465654219</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>8.632685302645797</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>11.40034307238638</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>11.56843089127669</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.77553576908163</v>
+        <v>26.63792402539356</v>
       </c>
       <c r="C24">
-        <v>20.51253781938495</v>
+        <v>21.67477534894712</v>
       </c>
       <c r="D24">
-        <v>7.161596532221706</v>
+        <v>7.574025161521715</v>
       </c>
       <c r="E24">
-        <v>13.22693942058751</v>
+        <v>13.37157575620657</v>
       </c>
       <c r="F24">
-        <v>35.79216792870123</v>
+        <v>33.71933859982953</v>
       </c>
       <c r="G24">
-        <v>46.35027711310469</v>
+        <v>42.78126003201237</v>
       </c>
       <c r="H24">
-        <v>2.748398989125612</v>
+        <v>2.675377548726503</v>
       </c>
       <c r="I24">
-        <v>3.363697902451409</v>
+        <v>3.308886445615218</v>
       </c>
       <c r="J24">
-        <v>13.38028192137804</v>
+        <v>12.84742283710126</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.341854957658128</v>
+        <v>14.00731042064447</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>11.72640675581385</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>8.263369257560862</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>11.68320305543817</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>11.74715595214728</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.12206811317024</v>
+        <v>24.18225470242518</v>
       </c>
       <c r="C25">
-        <v>18.58709351075435</v>
+        <v>19.59062308848456</v>
       </c>
       <c r="D25">
-        <v>6.665049533996944</v>
+        <v>7.024869279342282</v>
       </c>
       <c r="E25">
-        <v>12.24046587795133</v>
+        <v>12.38656943324497</v>
       </c>
       <c r="F25">
-        <v>33.46798503434776</v>
+        <v>31.74411045103412</v>
       </c>
       <c r="G25">
-        <v>42.95712202111496</v>
+        <v>39.71574911622738</v>
       </c>
       <c r="H25">
-        <v>2.209645564871718</v>
+        <v>2.179622964915763</v>
       </c>
       <c r="I25">
-        <v>2.955083909197732</v>
+        <v>2.961167394169174</v>
       </c>
       <c r="J25">
-        <v>12.8352127071642</v>
+        <v>12.50615543462926</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.873625375651885</v>
+        <v>14.08488480663178</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>11.06420155778255</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.822277346010617</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>11.99140131352535</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>11.9856267009656</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
